--- a/biology/Botanique/Acacia_fulva/Acacia_fulva.xlsx
+++ b/biology/Botanique/Acacia_fulva/Acacia_fulva.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acacia fulva est une espèce du genre Acacia, famille des Mimosaceae.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Acacia fulva se développe comme un arbuste ou un arbre, allant de 1,5 à 15 mètres de hauteur. Les jeunes arbres ont une écorce lisse gris-vert, qui s'assombrit et devient rugueuse et fissurée avec l'âge. La nouvelle croissance est couverte de poils veloutés brun-rouge
-[1]. Les feuilles gris argent sont pennées, avec 4 à 12 paires de pinnules, chacune de 3 à 7,5 centimètres de long. Chaque pinna est à son tour composé de 11 à 28 paires de pinnules de 3 à 10 millimètres de long. La floraison a lieu de novembre à juin, les capitules jaunes sont disposés en panicules ou racèmes axillaires et terminaux. Chaque petite fleur ronde est composée de 20 à 40 fleurs individuelles. La floraison est suivie par le développement des gousses coriaces de 2 à 12 cm de long[2], mûres entre avril et novembre.
+. Les feuilles gris argent sont pennées, avec 4 à 12 paires de pinnules, chacune de 3 à 7,5 centimètres de long. Chaque pinna est à son tour composé de 11 à 28 paires de pinnules de 3 à 10 millimètres de long. La floraison a lieu de novembre à juin, les capitules jaunes sont disposés en panicules ou racèmes axillaires et terminaux. Chaque petite fleur ronde est composée de 20 à 40 fleurs individuelles. La floraison est suivie par le développement des gousses coriaces de 2 à 12 cm de long, mûres entre avril et novembre.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acacia fulva est présent dans l'est de l'Australie[2]. On le trouve sur les sols dérivés du grès et du basalte riches en nutriments. Il pousse en forêt, associé à des espèces telles que Eucalyptus tereticornis, Eucalyptus moluccana et Eucalyptus crebra, et des arbustes comme Jacksonia scoparia ou des genres Exocarpos, Clerodendrum, Clematis et Senecio.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acacia fulva est présent dans l'est de l'Australie. On le trouve sur les sols dérivés du grès et du basalte riches en nutriments. Il pousse en forêt, associé à des espèces telles que Eucalyptus tereticornis, Eucalyptus moluccana et Eucalyptus crebra, et des arbustes comme Jacksonia scoparia ou des genres Exocarpos, Clerodendrum, Clematis et Senecio.
 </t>
         </is>
       </c>
